--- a/biology/Médecine/Kluyvera/Kluyvera.xlsx
+++ b/biology/Médecine/Kluyvera/Kluyvera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kluyvera est un genre de bacilles Gram négatifs de la famille des Enterobacteriaceae. Son nom fait référence au microbiologiste et biochimiste Albert Jan Kluyver en hommage à ses contributions à la physiologie et la taxonomie microbiennes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kluyvera est un genre de bacilles Gram négatifs de la famille des Enterobacteriaceae. Son nom fait référence au microbiologiste et biochimiste Albert Jan Kluyver en hommage à ses contributions à la physiologie et la taxonomie microbiennes.
 Elles peuvent être des pathogènes opportunistes pour l'homme.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est créé en 1981 pour contenir l'ancien groupe Enteric group 8[1].
-Jusqu'en 2016 il était rattaché par des critères phénotypiques à la famille des Enterobacteriaceae. Malgré la refonte de l'ordre des Enterobacterales par Adeolu et al. en 2016 à l'aide des techniques de phylogénétique moléculaire, Kluyvera reste dans la famille des Enterobacteriaceae dont le périmètre redéfini compte néanmoins beaucoup moins de genres qu'auparavant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est créé en 1981 pour contenir l'ancien groupe Enteric group 8.
+Jusqu'en 2016 il était rattaché par des critères phénotypiques à la famille des Enterobacteriaceae. Malgré la refonte de l'ordre des Enterobacterales par Adeolu et al. en 2016 à l'aide des techniques de phylogénétique moléculaire, Kluyvera reste dans la famille des Enterobacteriaceae dont le périmètre redéfini compte néanmoins beaucoup moins de genres qu'auparavant.
 </t>
         </is>
       </c>
@@ -546,10 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-Kluyvera est présente naturellement dans l'eau, le sol et les eaux usées[3]. Les bactéries de ce genre  peuvent provoquer des infections opportunistes chez les patients immunodéprimés[3].
-Morphologie et culture
-Kluyvera est un genre de bactéries anaérobies facultatives à Gram négatif et mobiles avec des flagelles péritriches[1],[4].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kluyvera est présente naturellement dans l'eau, le sol et les eaux usées. Les bactéries de ce genre  peuvent provoquer des infections opportunistes chez les patients immunodéprimés.
 </t>
         </is>
       </c>
@@ -575,12 +592,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie et culture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kluyvera est un genre de bactéries anaérobies facultatives à Gram négatif et mobiles avec des flagelles péritriches,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kluyvera</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kluyvera</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (1er novembre 2022)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (1er novembre 2022) :
 Kluyvera ascorbata Farmer et al. 1981 – espèce type
 Kluyvera cryocrescens Farmer et al. 1981
 Kluyvera georgiana Müller et al. 1996
